--- a/python/multiscalepy/multiscale/examples/models/galactose/galactose_annotations.xlsx
+++ b/python/multiscalepy/multiscale/examples/models/galactose/galactose_annotations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="183" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="279" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -86,7 +86,7 @@
     <t>liver</t>
   </si>
   <si>
-    <t>UBERON:2107</t>
+    <t>UBERON:0002107</t>
   </si>
   <si>
     <t>uberon</t>
@@ -1242,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:G308"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G164" activeCellId="0" sqref="G164"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/python/multiscalepy/multiscale/examples/models/galactose/galactose_annotations.xlsx
+++ b/python/multiscalepy/multiscale/examples/models/galactose/galactose_annotations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="326">
   <si>
     <t>pattern</t>
   </si>
@@ -143,7 +143,7 @@
     <t>galactose catabolic process</t>
   </si>
   <si>
-    <t>REACTOME:R-HSA-70370.1</t>
+    <t>REACTOME:R-HSA-70370</t>
   </si>
   <si>
     <t>reactome</t>
@@ -152,10 +152,13 @@
     <t>Galactose catabolism</t>
   </si>
   <si>
-    <t>PWY-6317</t>
-  </si>
-  <si>
-    <t>metacyc</t>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://humancyc.org/HUMAN/NEW-IMAGE?type=PATHWAY&amp;object=PWY66-422</t>
+  </si>
+  <si>
+    <t>humancyc</t>
   </si>
   <si>
     <t>D-galactose degradation I</t>
@@ -335,7 +338,7 @@
     <t>rhea</t>
   </si>
   <si>
-    <t>REACTOME:R-HSA-70355.1</t>
+    <t>REACTOME:R-HSA-70355</t>
   </si>
   <si>
     <t>BQB_IS_DESCRIBED_BY</t>
@@ -1243,7 +1246,7 @@
   <dimension ref="A1:G308"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1574,19 +1577,19 @@
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,7 +1603,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1611,16 +1614,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
@@ -1629,21 +1632,21 @@
         <v>12</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
@@ -1652,21 +1655,21 @@
         <v>40</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>20</v>
@@ -1675,15 +1678,15 @@
         <v>26</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
@@ -1703,10 +1706,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>9</v>
@@ -1735,16 +1738,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>20</v>
@@ -1753,21 +1756,21 @@
         <v>12</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>20</v>
@@ -1776,21 +1779,21 @@
         <v>40</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>20</v>
@@ -1799,7 +1802,7 @@
         <v>26</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,16 +1816,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>20</v>
@@ -1831,21 +1834,21 @@
         <v>12</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>20</v>
@@ -1854,21 +1857,21 @@
         <v>40</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>20</v>
@@ -1877,7 +1880,7 @@
         <v>26</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,16 +1894,16 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>20</v>
@@ -1909,21 +1912,21 @@
         <v>12</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>20</v>
@@ -1932,21 +1935,21 @@
         <v>40</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>20</v>
@@ -1955,7 +1958,7 @@
         <v>26</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,7 +1972,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1980,16 +1983,16 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>20</v>
@@ -1998,21 +2001,21 @@
         <v>12</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>20</v>
@@ -2021,21 +2024,21 @@
         <v>12</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>20</v>
@@ -2044,21 +2047,21 @@
         <v>12</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>20</v>
@@ -2067,7 +2070,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2081,7 +2084,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2092,16 +2095,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>20</v>
@@ -2110,7 +2113,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,16 +2127,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>20</v>
@@ -2142,53 +2145,53 @@
         <v>12</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,16 +2205,16 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>20</v>
@@ -2220,38 +2223,38 @@
         <v>12</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>9</v>
@@ -2260,13 +2263,13 @@
         <v>227810</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,16 +2283,16 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>20</v>
@@ -2298,78 +2301,78 @@
         <v>12</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>9</v>
@@ -2381,22 +2384,22 @@
         <v>20</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>20</v>
@@ -2408,10 +2411,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>9</v>
@@ -2420,19 +2423,19 @@
         <v>230200</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>9</v>
@@ -2441,13 +2444,13 @@
         <v>12694189</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2461,10 +2464,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>9</v>
@@ -2476,16 +2479,16 @@
         <v>20</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>9</v>
@@ -2494,21 +2497,21 @@
         <v>12694189</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>9</v>
@@ -2520,16 +2523,16 @@
         <v>20</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>9</v>
@@ -2538,21 +2541,21 @@
         <v>12694189</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>9</v>
@@ -2564,16 +2567,16 @@
         <v>20</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>9</v>
@@ -2582,21 +2585,21 @@
         <v>12694189</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>9</v>
@@ -2608,16 +2611,16 @@
         <v>20</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>9</v>
@@ -2626,13 +2629,13 @@
         <v>15024738</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,16 +2649,16 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>20</v>
@@ -2664,48 +2667,48 @@
         <v>12</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G73" s="0"/>
     </row>
@@ -2720,16 +2723,16 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>20</v>
@@ -2738,57 +2741,57 @@
         <v>12</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>9</v>
@@ -2800,37 +2803,37 @@
         <v>20</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>9</v>
@@ -2839,10 +2842,10 @@
         <v>230400</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G80" s="0"/>
     </row>
@@ -2857,16 +2860,16 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>20</v>
@@ -2875,57 +2878,57 @@
         <v>12</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>9</v>
@@ -2937,37 +2940,37 @@
         <v>20</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>9</v>
@@ -2976,19 +2979,19 @@
         <v>230350</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>9</v>
@@ -3000,16 +3003,16 @@
         <v>20</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>9</v>
@@ -3021,16 +3024,16 @@
         <v>20</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>9</v>
@@ -3042,16 +3045,16 @@
         <v>20</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>9</v>
@@ -3063,7 +3066,7 @@
         <v>20</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G91" s="0"/>
     </row>
@@ -3078,16 +3081,16 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>20</v>
@@ -3096,36 +3099,36 @@
         <v>12</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>9</v>
@@ -3137,49 +3140,49 @@
         <v>20</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G97" s="0"/>
     </row>
@@ -3194,16 +3197,16 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>20</v>
@@ -3212,36 +3215,36 @@
         <v>12</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>9</v>
@@ -3253,49 +3256,49 @@
         <v>20</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="E103" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G103" s="0"/>
     </row>
@@ -3310,16 +3313,16 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>20</v>
@@ -3328,99 +3331,99 @@
         <v>12</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>9</v>
@@ -3432,16 +3435,16 @@
         <v>20</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>9</v>
@@ -3453,16 +3456,16 @@
         <v>20</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>9</v>
@@ -3474,7 +3477,7 @@
         <v>20</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G112" s="0"/>
     </row>
@@ -3489,16 +3492,16 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>20</v>
@@ -3507,36 +3510,36 @@
         <v>12</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>9</v>
@@ -3548,58 +3551,58 @@
         <v>20</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>9</v>
@@ -3608,10 +3611,10 @@
         <v>612934</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G119" s="0"/>
     </row>
@@ -3626,16 +3629,16 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>20</v>
@@ -3644,36 +3647,36 @@
         <v>12</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>9</v>
@@ -3685,49 +3688,49 @@
         <v>20</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G125" s="0"/>
     </row>
@@ -3742,16 +3745,16 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>20</v>
@@ -3760,36 +3763,36 @@
         <v>12</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>9</v>
@@ -3801,28 +3804,28 @@
         <v>20</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G130" s="0"/>
     </row>
@@ -3837,16 +3840,16 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>20</v>
@@ -3855,36 +3858,36 @@
         <v>12</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>9</v>
@@ -3896,49 +3899,49 @@
         <v>20</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G136" s="0"/>
     </row>
@@ -3953,16 +3956,16 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>20</v>
@@ -3971,54 +3974,54 @@
         <v>12</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -4040,16 +4043,16 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>20</v>
@@ -4058,12 +4061,12 @@
         <v>12</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -4085,16 +4088,16 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>20</v>
@@ -4103,7 +4106,7 @@
         <v>12</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,16 +4120,16 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>20</v>
@@ -4135,7 +4138,7 @@
         <v>12</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4149,7 +4152,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4160,16 +4163,16 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>20</v>
@@ -4178,67 +4181,67 @@
         <v>12</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E153" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
@@ -4246,16 +4249,16 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
@@ -4272,16 +4275,16 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E157" s="7" t="s">
         <v>20</v>
@@ -4290,67 +4293,67 @@
         <v>12</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E159" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
@@ -4358,16 +4361,16 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D161" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
@@ -4384,16 +4387,16 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E163" s="7" t="s">
         <v>20</v>
@@ -4402,67 +4405,67 @@
         <v>12</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E164" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E166" s="0"/>
       <c r="F166" s="7"/>
@@ -4470,16 +4473,16 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
@@ -4496,16 +4499,16 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>20</v>
@@ -4514,67 +4517,67 @@
         <v>12</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
@@ -4582,16 +4585,16 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D173" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
@@ -4608,16 +4611,16 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>20</v>
@@ -4626,67 +4629,67 @@
         <v>12</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E176" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E177" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
@@ -4694,16 +4697,16 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
@@ -4720,16 +4723,16 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E181" s="7" t="s">
         <v>20</v>
@@ -4738,67 +4741,67 @@
         <v>12</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E182" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E183" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
@@ -4806,16 +4809,16 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
@@ -4832,16 +4835,16 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E187" s="7" t="s">
         <v>20</v>
@@ -4850,67 +4853,67 @@
         <v>12</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E188" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E189" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D190" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D190" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
@@ -4918,13 +4921,13 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D191" s="15" t="n">
         <v>-2</v>
@@ -4944,16 +4947,16 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E193" s="7" t="s">
         <v>20</v>
@@ -4962,67 +4965,67 @@
         <v>12</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E194" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G194" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E195" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
@@ -5030,16 +5033,16 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
@@ -5056,16 +5059,16 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E199" s="7" t="s">
         <v>20</v>
@@ -5074,67 +5077,67 @@
         <v>12</v>
       </c>
       <c r="G199" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E200" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E201" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
@@ -5142,16 +5145,16 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
@@ -5168,16 +5171,16 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E205" s="7" t="s">
         <v>20</v>
@@ -5186,67 +5189,67 @@
         <v>12</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E206" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E207" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
@@ -5254,13 +5257,13 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D209" s="15" t="n">
         <v>-3</v>
@@ -5280,16 +5283,16 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E211" s="7" t="s">
         <v>20</v>
@@ -5298,67 +5301,67 @@
         <v>12</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E212" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G212" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E213" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G213" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E214" s="7"/>
       <c r="F214" s="7"/>
@@ -5366,16 +5369,16 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
@@ -5392,16 +5395,16 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E217" s="7" t="s">
         <v>20</v>
@@ -5410,67 +5413,67 @@
         <v>12</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E218" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E219" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E220" s="7"/>
       <c r="F220" s="7"/>
@@ -5478,13 +5481,13 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D221" s="15" t="n">
         <v>-3</v>
@@ -5504,16 +5507,16 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E223" s="7" t="s">
         <v>20</v>
@@ -5522,67 +5525,67 @@
         <v>12</v>
       </c>
       <c r="G223" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E224" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G224" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E225" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G225" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E226" s="7"/>
       <c r="F226" s="7"/>
@@ -5590,16 +5593,16 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E227" s="7"/>
       <c r="F227" s="7"/>
@@ -5616,16 +5619,16 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E229" s="7" t="s">
         <v>20</v>
@@ -5634,67 +5637,67 @@
         <v>12</v>
       </c>
       <c r="G229" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E230" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G230" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E231" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G231" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E232" s="7"/>
       <c r="F232" s="7"/>
@@ -5702,13 +5705,13 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D233" s="15" t="n">
         <v>-3</v>
@@ -5728,16 +5731,16 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E235" s="7" t="s">
         <v>20</v>
@@ -5746,67 +5749,67 @@
         <v>12</v>
       </c>
       <c r="G235" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E236" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G236" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E237" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G237" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E238" s="7"/>
       <c r="F238" s="7"/>
@@ -5814,13 +5817,13 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D239" s="15" t="n">
         <v>-3</v>
@@ -5840,16 +5843,16 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E241" s="7" t="s">
         <v>20</v>
@@ -5858,67 +5861,67 @@
         <v>12</v>
       </c>
       <c r="G241" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E242" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G242" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E243" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G243" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
@@ -5926,13 +5929,13 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D245" s="15" t="n">
         <v>-4</v>
@@ -5952,16 +5955,16 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E247" s="7" t="s">
         <v>20</v>
@@ -5970,21 +5973,21 @@
         <v>12</v>
       </c>
       <c r="G247" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E248" s="7"/>
       <c r="F248" s="7"/>
@@ -5992,13 +5995,13 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D249" s="15" t="n">
         <v>0</v>
@@ -6018,16 +6021,16 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E251" s="7" t="s">
         <v>20</v>
@@ -6036,21 +6039,21 @@
         <v>12</v>
       </c>
       <c r="G251" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
@@ -6058,13 +6061,13 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D253" s="15" t="n">
         <v>0</v>
@@ -6084,16 +6087,16 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E255" s="7" t="s">
         <v>20</v>
@@ -6102,21 +6105,21 @@
         <v>12</v>
       </c>
       <c r="G255" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D256" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B256" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D256" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="E256" s="7"/>
       <c r="F256" s="7"/>
@@ -6124,13 +6127,13 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D257" s="15" t="n">
         <v>0</v>
@@ -6150,16 +6153,16 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E259" s="7" t="s">
         <v>20</v>
@@ -6168,67 +6171,67 @@
         <v>12</v>
       </c>
       <c r="G259" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E260" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G260" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E261" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G261" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E262" s="7"/>
       <c r="F262" s="7"/>
@@ -6236,16 +6239,16 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
@@ -6262,16 +6265,16 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E265" s="7" t="s">
         <v>20</v>
@@ -6280,67 +6283,67 @@
         <v>12</v>
       </c>
       <c r="G265" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E266" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G266" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E267" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G267" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E268" s="7"/>
       <c r="F268" s="7"/>
@@ -6348,16 +6351,16 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E269" s="7"/>
       <c r="F269" s="7"/>
@@ -6374,16 +6377,16 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E271" s="7" t="s">
         <v>20</v>
@@ -6392,67 +6395,67 @@
         <v>12</v>
       </c>
       <c r="G271" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E272" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F272" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G272" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E273" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F273" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G273" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
@@ -6460,16 +6463,16 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E275" s="7"/>
       <c r="F275" s="7"/>
@@ -6486,16 +6489,16 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E277" s="7" t="s">
         <v>20</v>
@@ -6504,67 +6507,67 @@
         <v>12</v>
       </c>
       <c r="G277" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E278" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F278" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G278" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E279" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G279" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E280" s="7"/>
       <c r="F280" s="7"/>
@@ -6572,16 +6575,16 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
@@ -6598,16 +6601,16 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E283" s="7" t="s">
         <v>20</v>
@@ -6616,67 +6619,67 @@
         <v>12</v>
       </c>
       <c r="G283" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E284" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F284" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G284" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E285" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F285" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G285" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E286" s="7"/>
       <c r="F286" s="7"/>
@@ -6684,16 +6687,16 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E287" s="7"/>
       <c r="F287" s="7"/>
@@ -6710,16 +6713,16 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E289" s="7" t="s">
         <v>20</v>
@@ -6728,67 +6731,67 @@
         <v>12</v>
       </c>
       <c r="G289" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E290" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F290" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G290" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E291" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F291" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G291" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E292" s="7"/>
       <c r="F292" s="7"/>
@@ -6796,16 +6799,16 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
@@ -6822,16 +6825,16 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E295" s="7" t="s">
         <v>20</v>
@@ -6840,21 +6843,21 @@
         <v>12</v>
       </c>
       <c r="G295" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E296" s="7" t="s">
         <v>20</v>
@@ -6863,21 +6866,21 @@
         <v>21</v>
       </c>
       <c r="G296" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E297" s="7" t="s">
         <v>20</v>
@@ -6886,21 +6889,21 @@
         <v>26</v>
       </c>
       <c r="G297" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E298" s="7" t="s">
         <v>20</v>
@@ -6909,21 +6912,21 @@
         <v>40</v>
       </c>
       <c r="G298" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E299" s="7" t="s">
         <v>20</v>
@@ -6932,7 +6935,7 @@
         <v>26</v>
       </c>
       <c r="G299" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6946,16 +6949,16 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E301" s="7" t="s">
         <v>20</v>
@@ -6964,30 +6967,30 @@
         <v>12</v>
       </c>
       <c r="G301" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D302" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E302" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F302" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G302" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7001,7 +7004,7 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -7012,16 +7015,16 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E305" s="7" t="s">
         <v>20</v>
@@ -7030,21 +7033,21 @@
         <v>12</v>
       </c>
       <c r="G305" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E306" s="7" t="s">
         <v>20</v>
@@ -7053,21 +7056,21 @@
         <v>12</v>
       </c>
       <c r="G306" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E307" s="7" t="s">
         <v>20</v>
@@ -7076,21 +7079,21 @@
         <v>12</v>
       </c>
       <c r="G307" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E308" s="7" t="s">
         <v>20</v>
@@ -7099,10 +7102,13 @@
         <v>12</v>
       </c>
       <c r="G308" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D15" r:id="rId1" display="http://humancyc.org/HUMAN/NEW-IMAGE?type=PATHWAY&amp;object=PWY66-422"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
